--- a/source/PART 01/CHAPTER 02/테이블-열 분리.xlsx
+++ b/source/PART 01/CHAPTER 02/테이블-열 분리.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최준선\Desktop\CD\PART 01\CHAPTER 02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\source\PART 01\CHAPTER 02\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5646858-FDFF-4395-B190-653CF06742D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15600" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample1" sheetId="4" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="100">
   <si>
     <t>사번</t>
   </si>
@@ -195,6 +196,163 @@
   <si>
     <t>sophia@hanmail.net</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>james</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>andrew</t>
+  </si>
+  <si>
+    <t>linda</t>
+  </si>
+  <si>
+    <t>robert</t>
+  </si>
+  <si>
+    <t>olivia</t>
+  </si>
+  <si>
+    <t>william</t>
+  </si>
+  <si>
+    <t>nicolas</t>
+  </si>
+  <si>
+    <t>jennifer</t>
+  </si>
+  <si>
+    <t>sophia</t>
+  </si>
+  <si>
+    <t>naver.com</t>
+  </si>
+  <si>
+    <t>naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanmail.net</t>
+  </si>
+  <si>
+    <t>gmail.com</t>
+  </si>
+  <si>
+    <t>naver</t>
+  </si>
+  <si>
+    <t>naver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmail</t>
+  </si>
+  <si>
+    <t>daum</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>서울특별시</t>
+  </si>
+  <si>
+    <t>서초구</t>
+  </si>
+  <si>
+    <t>경기도</t>
+  </si>
+  <si>
+    <t>광명시</t>
+  </si>
+  <si>
+    <t>강서구</t>
+  </si>
+  <si>
+    <t>인천광역시</t>
+  </si>
+  <si>
+    <t>남구</t>
+  </si>
+  <si>
+    <t>과천시</t>
+  </si>
+  <si>
+    <t>안산시</t>
+  </si>
+  <si>
+    <t>용산구</t>
+  </si>
+  <si>
+    <t>노원구</t>
+  </si>
+  <si>
+    <t>동두천시</t>
+  </si>
+  <si>
+    <t>방배동</t>
+  </si>
+  <si>
+    <t>883-11</t>
+  </si>
+  <si>
+    <t>소하동</t>
+  </si>
+  <si>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>내발산동</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>연수동</t>
+  </si>
+  <si>
+    <t>208-16</t>
+  </si>
+  <si>
+    <t>중앙동</t>
+  </si>
+  <si>
+    <t>427-10</t>
+  </si>
+  <si>
+    <t>고잔동</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>갈월동</t>
+  </si>
+  <si>
+    <t>116-7</t>
+  </si>
+  <si>
+    <t>공릉동</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>생연1동</t>
+  </si>
+  <si>
+    <t>416-1</t>
   </si>
 </sst>
 </file>
@@ -632,21 +790,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.58203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,7 +830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -682,15 +840,23 @@
       <c r="C2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -700,15 +866,23 @@
       <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -718,15 +892,23 @@
       <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -736,15 +918,23 @@
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -754,15 +944,23 @@
       <c r="C6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -772,15 +970,23 @@
       <c r="C7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="G7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -790,15 +996,23 @@
       <c r="C8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="G8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -808,15 +1022,23 @@
       <c r="C9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="G9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -826,18 +1048,29 @@
       <c r="C10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="G10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="H2:H3 H4:H10" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -845,18 +1078,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,7 +1112,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -889,12 +1122,20 @@
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -904,12 +1145,20 @@
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -919,12 +1168,20 @@
       <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -934,12 +1191,20 @@
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -949,12 +1214,20 @@
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -964,12 +1237,20 @@
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -979,12 +1260,20 @@
       <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -994,12 +1283,20 @@
       <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1009,10 +1306,18 @@
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8"/>
+      <c r="D10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
